--- a/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F9F07E-82BA-4CE9-95D2-7C2E571E1599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7903EC5-441A-4436-899C-C4702AD87922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03835F39-6E8F-4B9F-BEFB-768A4F5A6F36}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{77A391D7-5847-44DC-9C7A-589BE803E7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="373">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,8%)</t>
   </si>
@@ -65,940 +65,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ECBE96-4154-4629-973F-8E602DD58957}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD9A16C-89B9-4A4F-B79C-5C99B06C3E80}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1534,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>34588</v>
+        <v>41965</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1549,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>11022</v>
+        <v>10160</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1564,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>45609</v>
+        <v>52125</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1585,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>40895</v>
+        <v>38973</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1600,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>55193</v>
+        <v>48605</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1615,7 +1768,7 @@
         <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>96088</v>
+        <v>87578</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1636,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>19694</v>
+        <v>20219</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1651,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>21159</v>
+        <v>19665</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1666,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>40853</v>
+        <v>39884</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1687,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>17900</v>
+        <v>14786</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1702,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>11971</v>
+        <v>10128</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1717,7 +1870,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>29871</v>
+        <v>24914</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1738,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>6578</v>
+        <v>5785</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1753,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>20931</v>
+        <v>15938</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1768,7 +1921,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>27509</v>
+        <v>21723</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1789,7 +1942,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="7">
-        <v>119654</v>
+        <v>121728</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1804,7 +1957,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="7">
-        <v>120276</v>
+        <v>104497</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1819,7 +1972,7 @@
         <v>124</v>
       </c>
       <c r="N9" s="7">
-        <v>239930</v>
+        <v>226225</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1842,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>9386</v>
+        <v>9565</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1857,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>15102</v>
+        <v>14147</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1872,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>24489</v>
+        <v>23713</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1893,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>24399</v>
+        <v>23963</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1908,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>30448</v>
+        <v>28525</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1923,7 +2076,7 @@
         <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>54847</v>
+        <v>52488</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1944,7 +2097,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>46623</v>
+        <v>48075</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1959,7 +2112,7 @@
         <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>66195</v>
+        <v>60606</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1974,7 +2127,7 @@
         <v>93</v>
       </c>
       <c r="N12" s="7">
-        <v>112819</v>
+        <v>108682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1995,7 +2148,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>31283</v>
+        <v>30355</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2010,7 +2163,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>31167</v>
+        <v>26331</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -2025,7 +2178,7 @@
         <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>62450</v>
+        <v>56685</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -2046,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>17395</v>
+        <v>16976</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -2061,7 +2214,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>22905</v>
+        <v>19682</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -2076,16 +2229,16 @@
         <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>40300</v>
+        <v>36658</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2250,7 @@
         <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>129086</v>
+        <v>128935</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2112,7 +2265,7 @@
         <v>159</v>
       </c>
       <c r="I15" s="7">
-        <v>165818</v>
+        <v>149291</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2127,7 +2280,7 @@
         <v>249</v>
       </c>
       <c r="N15" s="7">
-        <v>294904</v>
+        <v>278226</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2141,7 +2294,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2150,46 +2303,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>14479</v>
+        <v>14340</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>13969</v>
+        <v>13139</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
       </c>
       <c r="N16" s="7">
-        <v>28448</v>
+        <v>27479</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,46 +2354,46 @@
         <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>41689</v>
+        <v>41021</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>44254</v>
+        <v>42066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
       </c>
       <c r="N17" s="7">
-        <v>85942</v>
+        <v>83087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,46 +2405,46 @@
         <v>98</v>
       </c>
       <c r="D18" s="7">
-        <v>106560</v>
+        <v>101967</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
       </c>
       <c r="I18" s="7">
-        <v>77691</v>
+        <v>73512</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>216</v>
       </c>
       <c r="N18" s="7">
-        <v>184251</v>
+        <v>175479</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,46 +2456,46 @@
         <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>32388</v>
+        <v>30129</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>36252</v>
+        <v>31677</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>68639</v>
+        <v>61806</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,40 +2507,40 @@
         <v>23</v>
       </c>
       <c r="D20" s="7">
-        <v>22843</v>
+        <v>21448</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>23311</v>
+        <v>21212</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
       </c>
       <c r="N20" s="7">
-        <v>46154</v>
+        <v>42660</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>150</v>
@@ -2405,7 +2558,7 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>217959</v>
+        <v>208904</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2420,7 +2573,7 @@
         <v>288</v>
       </c>
       <c r="I21" s="7">
-        <v>195476</v>
+        <v>181606</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2435,7 +2588,7 @@
         <v>499</v>
       </c>
       <c r="N21" s="7">
-        <v>413434</v>
+        <v>390511</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2458,25 +2611,25 @@
         <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>19829</v>
+        <v>19197</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>24515</v>
+        <v>22941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>156</v>
@@ -2488,7 +2641,7 @@
         <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>44344</v>
+        <v>42137</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>158</v>
@@ -2509,7 +2662,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="7">
-        <v>56068</v>
+        <v>53737</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>161</v>
@@ -2524,7 +2677,7 @@
         <v>82</v>
       </c>
       <c r="I23" s="7">
-        <v>48609</v>
+        <v>45854</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>164</v>
@@ -2539,7 +2692,7 @@
         <v>139</v>
       </c>
       <c r="N23" s="7">
-        <v>104677</v>
+        <v>99592</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>167</v>
@@ -2560,7 +2713,7 @@
         <v>116</v>
       </c>
       <c r="D24" s="7">
-        <v>116206</v>
+        <v>116478</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>170</v>
@@ -2575,7 +2728,7 @@
         <v>170</v>
       </c>
       <c r="I24" s="7">
-        <v>105148</v>
+        <v>98302</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>173</v>
@@ -2590,7 +2743,7 @@
         <v>286</v>
       </c>
       <c r="N24" s="7">
-        <v>221355</v>
+        <v>214780</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>176</v>
@@ -2611,7 +2764,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="7">
-        <v>41364</v>
+        <v>37450</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>179</v>
@@ -2626,7 +2779,7 @@
         <v>76</v>
       </c>
       <c r="I25" s="7">
-        <v>52844</v>
+        <v>47416</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>182</v>
@@ -2641,7 +2794,7 @@
         <v>114</v>
       </c>
       <c r="N25" s="7">
-        <v>94208</v>
+        <v>84866</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>185</v>
@@ -2650,7 +2803,7 @@
         <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,46 +2815,46 @@
         <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>23449</v>
+        <v>21437</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>36445</v>
+        <v>33061</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
       </c>
       <c r="N26" s="7">
-        <v>59894</v>
+        <v>54498</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,7 +2866,7 @@
         <v>249</v>
       </c>
       <c r="D27" s="7">
-        <v>256916</v>
+        <v>248299</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2728,7 +2881,7 @@
         <v>419</v>
       </c>
       <c r="I27" s="7">
-        <v>267561</v>
+        <v>247574</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2743,7 +2896,7 @@
         <v>668</v>
       </c>
       <c r="N27" s="7">
-        <v>524478</v>
+        <v>495873</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2757,7 +2910,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2766,46 +2919,46 @@
         <v>15</v>
       </c>
       <c r="D28" s="7">
-        <v>16949</v>
+        <v>15947</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
       </c>
       <c r="I28" s="7">
-        <v>13266</v>
+        <v>12392</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
       </c>
       <c r="N28" s="7">
-        <v>30215</v>
+        <v>28339</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,46 +2970,46 @@
         <v>73</v>
       </c>
       <c r="D29" s="7">
-        <v>63809</v>
+        <v>60672</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>122</v>
       </c>
       <c r="I29" s="7">
-        <v>73242</v>
+        <v>68299</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>195</v>
       </c>
       <c r="N29" s="7">
-        <v>137051</v>
+        <v>128972</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,46 +3021,46 @@
         <v>111</v>
       </c>
       <c r="D30" s="7">
-        <v>97838</v>
+        <v>93247</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>149</v>
       </c>
       <c r="I30" s="7">
-        <v>85081</v>
+        <v>78525</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>260</v>
       </c>
       <c r="N30" s="7">
-        <v>182919</v>
+        <v>171772</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,46 +3072,46 @@
         <v>47</v>
       </c>
       <c r="D31" s="7">
-        <v>43473</v>
+        <v>37999</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
       </c>
       <c r="I31" s="7">
-        <v>30655</v>
+        <v>26875</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>93</v>
       </c>
       <c r="N31" s="7">
-        <v>74128</v>
+        <v>64874</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,7 +3123,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="7">
-        <v>32696</v>
+        <v>30910</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>232</v>
@@ -2985,7 +3138,7 @@
         <v>65</v>
       </c>
       <c r="I32" s="7">
-        <v>39629</v>
+        <v>36043</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>235</v>
@@ -3000,7 +3153,7 @@
         <v>105</v>
       </c>
       <c r="N32" s="7">
-        <v>72325</v>
+        <v>66953</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>238</v>
@@ -3021,7 +3174,7 @@
         <v>286</v>
       </c>
       <c r="D33" s="7">
-        <v>254765</v>
+        <v>238775</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -3036,7 +3189,7 @@
         <v>403</v>
       </c>
       <c r="I33" s="7">
-        <v>241873</v>
+        <v>222135</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3051,7 +3204,7 @@
         <v>689</v>
       </c>
       <c r="N33" s="7">
-        <v>496638</v>
+        <v>460910</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -3071,10 +3224,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D34" s="7">
-        <v>18536</v>
+        <v>7509</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>242</v>
@@ -3086,10 +3239,10 @@
         <v>244</v>
       </c>
       <c r="H34" s="7">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I34" s="7">
-        <v>35142</v>
+        <v>14871</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>245</v>
@@ -3101,10 +3254,10 @@
         <v>247</v>
       </c>
       <c r="M34" s="7">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="N34" s="7">
-        <v>53678</v>
+        <v>22380</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>248</v>
@@ -3122,10 +3275,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7">
-        <v>71393</v>
+        <v>33245</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>251</v>
@@ -3137,10 +3290,10 @@
         <v>253</v>
       </c>
       <c r="H35" s="7">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="I35" s="7">
-        <v>274113</v>
+        <v>256899</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>254</v>
@@ -3152,10 +3305,10 @@
         <v>256</v>
       </c>
       <c r="M35" s="7">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="N35" s="7">
-        <v>345506</v>
+        <v>290144</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>257</v>
@@ -3173,10 +3326,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7">
-        <v>101149</v>
+        <v>54920</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>260</v>
@@ -3188,10 +3341,10 @@
         <v>262</v>
       </c>
       <c r="H36" s="7">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="I36" s="7">
-        <v>100709</v>
+        <v>47615</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>263</v>
@@ -3203,10 +3356,10 @@
         <v>265</v>
       </c>
       <c r="M36" s="7">
-        <v>336</v>
+        <v>183</v>
       </c>
       <c r="N36" s="7">
-        <v>201859</v>
+        <v>102535</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>266</v>
@@ -3224,49 +3377,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D37" s="7">
-        <v>45982</v>
+        <v>24711</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I37" s="7">
-        <v>49921</v>
+        <v>24023</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="N37" s="7">
-        <v>95903</v>
+        <v>48734</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3428,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D38" s="7">
-        <v>44202</v>
+        <v>27552</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
       <c r="H38" s="7">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="I38" s="7">
-        <v>47774</v>
+        <v>20825</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M38" s="7">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="N38" s="7">
-        <v>91977</v>
+        <v>48377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>416</v>
+        <v>231</v>
       </c>
       <c r="D39" s="7">
-        <v>281262</v>
+        <v>147938</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3341,10 +3494,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>747</v>
+        <v>328</v>
       </c>
       <c r="I39" s="7">
-        <v>507659</v>
+        <v>364233</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3356,10 +3509,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1163</v>
+        <v>559</v>
       </c>
       <c r="N39" s="7">
-        <v>788922</v>
+        <v>512171</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3373,55 +3526,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D40" s="7">
-        <v>113767</v>
+        <v>10087</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H40" s="7">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="I40" s="7">
-        <v>113016</v>
+        <v>17438</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M40" s="7">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="N40" s="7">
-        <v>226783</v>
+        <v>27525</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,49 +3583,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7">
-        <v>298251</v>
+        <v>34249</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
-        <v>667</v>
+        <v>209</v>
       </c>
       <c r="I41" s="7">
-        <v>525859</v>
+        <v>97422</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
-        <v>995</v>
+        <v>268</v>
       </c>
       <c r="N41" s="7">
-        <v>824111</v>
+        <v>131671</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,49 +3634,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>518</v>
+        <v>63</v>
       </c>
       <c r="D42" s="7">
-        <v>488072</v>
+        <v>40112</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H42" s="7">
-        <v>697</v>
+        <v>90</v>
       </c>
       <c r="I42" s="7">
-        <v>455984</v>
+        <v>44257</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M42" s="7">
-        <v>1215</v>
+        <v>153</v>
       </c>
       <c r="N42" s="7">
-        <v>944056</v>
+        <v>84370</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,49 +3685,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="D43" s="7">
-        <v>212389</v>
+        <v>16253</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H43" s="7">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="I43" s="7">
-        <v>212809</v>
+        <v>19419</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M43" s="7">
-        <v>492</v>
+        <v>63</v>
       </c>
       <c r="N43" s="7">
-        <v>425198</v>
+        <v>35672</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3736,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="D44" s="7">
-        <v>147163</v>
+        <v>13744</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H44" s="7">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="I44" s="7">
-        <v>190995</v>
+        <v>22354</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
-        <v>449</v>
+        <v>72</v>
       </c>
       <c r="N44" s="7">
-        <v>338159</v>
+        <v>36097</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,63 +3787,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>185</v>
+      </c>
+      <c r="D45" s="7">
+        <v>114445</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>419</v>
+      </c>
+      <c r="I45" s="7">
+        <v>200889</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>604</v>
+      </c>
+      <c r="N45" s="7">
+        <v>315334</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>81</v>
+      </c>
+      <c r="D46" s="7">
+        <v>118610</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H46" s="7">
+        <v>160</v>
+      </c>
+      <c r="I46" s="7">
+        <v>105088</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" s="7">
+        <v>241</v>
+      </c>
+      <c r="N46" s="7">
+        <v>223698</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>328</v>
+      </c>
+      <c r="D47" s="7">
+        <v>285861</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H47" s="7">
+        <v>667</v>
+      </c>
+      <c r="I47" s="7">
+        <v>587670</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M47" s="7">
+        <v>995</v>
+      </c>
+      <c r="N47" s="7">
+        <v>873531</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>518</v>
+      </c>
+      <c r="D48" s="7">
+        <v>475019</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H48" s="7">
+        <v>697</v>
+      </c>
+      <c r="I48" s="7">
+        <v>422483</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1215</v>
+      </c>
+      <c r="N48" s="7">
+        <v>897502</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>208</v>
+      </c>
+      <c r="D49" s="7">
+        <v>191683</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H49" s="7">
+        <v>284</v>
+      </c>
+      <c r="I49" s="7">
+        <v>185868</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M49" s="7">
+        <v>492</v>
+      </c>
+      <c r="N49" s="7">
+        <v>377551</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>171</v>
+      </c>
+      <c r="D50" s="7">
+        <v>137852</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H50" s="7">
+        <v>278</v>
+      </c>
+      <c r="I50" s="7">
+        <v>169115</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" s="7">
+        <v>449</v>
+      </c>
+      <c r="N50" s="7">
+        <v>306967</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1306</v>
       </c>
-      <c r="D45" s="7">
-        <v>1259642</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>1209025</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>2086</v>
       </c>
-      <c r="I45" s="7">
-        <v>1498664</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>1470224</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>3392</v>
       </c>
-      <c r="N45" s="7">
-        <v>2758306</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>321</v>
+      <c r="N51" s="7">
+        <v>2679249</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
